--- a/Energy Consumption19.xlsx
+++ b/Energy Consumption19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8.272238248885259</v>
+        <v>8.655440747545425</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8058157406020425</v>
+        <v>0.707900011048036</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8.534258950328667</v>
+        <v>8.774132905390809</v>
       </c>
       <c r="C3" t="n">
-        <v>1.834969636170497</v>
+        <v>1.404152533376853</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9.226658494705912</v>
+        <v>9.161640234321814</v>
       </c>
       <c r="C4" t="n">
-        <v>2.766412662918985</v>
+        <v>2.05969221672366</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9.81533657945042</v>
+        <v>9.220165123224707</v>
       </c>
       <c r="C5" t="n">
-        <v>3.928335972049277</v>
+        <v>2.756058946153658</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11.42246380485049</v>
+        <v>11.37189465995256</v>
       </c>
       <c r="C6" t="n">
-        <v>4.664171353744748</v>
+        <v>3.775199062348046</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15.8843033409286</v>
+        <v>11.48692781600726</v>
       </c>
       <c r="C7" t="n">
-        <v>5.63731976745005</v>
+        <v>4.574250469192681</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>18.6302251858107</v>
+        <v>14.83339917805259</v>
       </c>
       <c r="C8" t="n">
-        <v>6.494785557856015</v>
+        <v>5.306038798351794</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>18.87456097909232</v>
+        <v>15.11230411077724</v>
       </c>
       <c r="C9" t="n">
-        <v>7.971132549070676</v>
+        <v>5.998675075632562</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19.94745752719682</v>
+        <v>16.90935188785546</v>
       </c>
       <c r="C10" t="n">
-        <v>8.913777114714451</v>
+        <v>6.829170393289028</v>
       </c>
     </row>
     <row r="11">
@@ -549,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>22.00482319146069</v>
+        <v>17.00663096371362</v>
       </c>
       <c r="C11" t="n">
-        <v>9.733850707978034</v>
+        <v>7.630719736501384</v>
       </c>
     </row>
     <row r="12">
@@ -560,10 +560,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>23.45990619913073</v>
+        <v>20.88084421830928</v>
       </c>
       <c r="C12" t="n">
-        <v>10.91814365299774</v>
+        <v>8.494054961347006</v>
       </c>
     </row>
     <row r="13">
@@ -571,10 +571,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>30.06541892663383</v>
+        <v>21.33981148266859</v>
       </c>
       <c r="C13" t="n">
-        <v>11.73814284872998</v>
+        <v>9.146968971703915</v>
       </c>
     </row>
     <row r="14">
@@ -582,10 +582,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>30.41160773376884</v>
+        <v>21.41912674689676</v>
       </c>
       <c r="C14" t="n">
-        <v>12.865224529538</v>
+        <v>9.933491801155858</v>
       </c>
     </row>
     <row r="15">
@@ -593,10 +593,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>30.74454387215722</v>
+        <v>24.96119769513005</v>
       </c>
       <c r="C15" t="n">
-        <v>13.83449857493134</v>
+        <v>10.72489668234038</v>
       </c>
     </row>
     <row r="16">
@@ -604,10 +604,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>31.19996742139898</v>
+        <v>25.02477168113873</v>
       </c>
       <c r="C16" t="n">
-        <v>14.60135138480425</v>
+        <v>11.49069797649732</v>
       </c>
     </row>
     <row r="17">
@@ -615,10 +615,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>31.8256060393591</v>
+        <v>25.38148241481064</v>
       </c>
       <c r="C17" t="n">
-        <v>15.49065981355239</v>
+        <v>12.70703163302527</v>
       </c>
     </row>
     <row r="18">
@@ -626,10 +626,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>39.45650059224964</v>
+        <v>25.80136852157638</v>
       </c>
       <c r="C18" t="n">
-        <v>16.41910288958924</v>
+        <v>13.40721855107083</v>
       </c>
     </row>
     <row r="19">
@@ -637,10 +637,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>41.63579480038287</v>
+        <v>26.62430429673192</v>
       </c>
       <c r="C19" t="n">
-        <v>17.21543844336044</v>
+        <v>14.33904275983722</v>
       </c>
     </row>
     <row r="20">
@@ -648,10 +648,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>44.20257448496049</v>
+        <v>31.28365183642197</v>
       </c>
       <c r="C20" t="n">
-        <v>18.2132531597568</v>
+        <v>15.13756516759278</v>
       </c>
     </row>
     <row r="21">
@@ -659,10 +659,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>44.34036512301636</v>
+        <v>31.73580809556347</v>
       </c>
       <c r="C21" t="n">
-        <v>19.02183493888344</v>
+        <v>16.02461502984101</v>
       </c>
     </row>
     <row r="22">
@@ -670,10 +670,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>47.36891282553423</v>
+        <v>31.7883100958229</v>
       </c>
       <c r="C22" t="n">
-        <v>20.43249281735106</v>
+        <v>16.69584912948651</v>
       </c>
     </row>
     <row r="23">
@@ -681,10 +681,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>47.81648626546999</v>
+        <v>32.83302442758634</v>
       </c>
       <c r="C23" t="n">
-        <v>21.28829790060377</v>
+        <v>17.29244698511091</v>
       </c>
     </row>
     <row r="24">
@@ -692,10 +692,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>48.42704429121621</v>
+        <v>32.93053329523873</v>
       </c>
       <c r="C24" t="n">
-        <v>22.06234392914024</v>
+        <v>18.01967643676003</v>
       </c>
     </row>
     <row r="25">
@@ -703,10 +703,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>48.59723674149453</v>
+        <v>33.85998950212554</v>
       </c>
       <c r="C25" t="n">
-        <v>23.27861632068387</v>
+        <v>18.9154698499765</v>
       </c>
     </row>
     <row r="26">
@@ -714,10 +714,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>50.64255183196614</v>
+        <v>35.33772968032522</v>
       </c>
       <c r="C26" t="n">
-        <v>24.21423383675468</v>
+        <v>19.78680256473768</v>
       </c>
     </row>
     <row r="27">
@@ -725,10 +725,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>52.72844002136346</v>
+        <v>38.88832562868661</v>
       </c>
       <c r="C27" t="n">
-        <v>25.77581917826249</v>
+        <v>20.57943623161137</v>
       </c>
     </row>
     <row r="28">
@@ -736,10 +736,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>53.63443415155275</v>
+        <v>38.92632501388512</v>
       </c>
       <c r="C28" t="n">
-        <v>26.69972371091351</v>
+        <v>21.24935684191707</v>
       </c>
     </row>
     <row r="29">
@@ -747,10 +747,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>65.77832064598535</v>
+        <v>44.59948247572704</v>
       </c>
       <c r="C29" t="n">
-        <v>27.62343375395918</v>
+        <v>21.98693187036435</v>
       </c>
     </row>
     <row r="30">
@@ -758,10 +758,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>66.98203234651226</v>
+        <v>44.68661802200463</v>
       </c>
       <c r="C30" t="n">
-        <v>28.59782495681531</v>
+        <v>22.73611222050961</v>
       </c>
     </row>
     <row r="31">
@@ -769,10 +769,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>70.84250534773457</v>
+        <v>45.77237404158237</v>
       </c>
       <c r="C31" t="n">
-        <v>29.36846081836124</v>
+        <v>23.54550444671809</v>
       </c>
     </row>
     <row r="32">
@@ -780,10 +780,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>72.47939417767164</v>
+        <v>59.75624638292181</v>
       </c>
       <c r="C32" t="n">
-        <v>30.56093039342349</v>
+        <v>24.30493243624291</v>
       </c>
     </row>
     <row r="33">
@@ -791,10 +791,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>73.10286944918796</v>
+        <v>59.81130430988183</v>
       </c>
       <c r="C33" t="n">
-        <v>31.27398599268405</v>
+        <v>25.19035318066064</v>
       </c>
     </row>
     <row r="34">
@@ -802,10 +802,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>73.87793822399912</v>
+        <v>67.03414541096291</v>
       </c>
       <c r="C34" t="n">
-        <v>32.25019287883816</v>
+        <v>25.82903171167909</v>
       </c>
     </row>
     <row r="35">
@@ -813,10 +813,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>74.01783553639704</v>
+        <v>67.63448670982559</v>
       </c>
       <c r="C35" t="n">
-        <v>33.22591663232176</v>
+        <v>26.70390099532375</v>
       </c>
     </row>
     <row r="36">
@@ -824,10 +824,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>74.4703596002352</v>
+        <v>71.18229273445434</v>
       </c>
       <c r="C36" t="n">
-        <v>34.06547222680248</v>
+        <v>27.36050330513353</v>
       </c>
     </row>
     <row r="37">
@@ -835,10 +835,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>74.5807818461448</v>
+        <v>71.2408045326759</v>
       </c>
       <c r="C37" t="n">
-        <v>35.2336929156919</v>
+        <v>28.14263578384396</v>
       </c>
     </row>
     <row r="38">
@@ -846,10 +846,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>76.314435189259</v>
+        <v>88.2132499314002</v>
       </c>
       <c r="C38" t="n">
-        <v>36.42178099431284</v>
+        <v>28.88185357846553</v>
       </c>
     </row>
     <row r="39">
@@ -857,10 +857,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>78.16406980172137</v>
+        <v>90.48472526696902</v>
       </c>
       <c r="C39" t="n">
-        <v>37.44060691490789</v>
+        <v>29.80205304393597</v>
       </c>
     </row>
     <row r="40">
@@ -868,10 +868,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>78.40779170158018</v>
+        <v>90.7240637115648</v>
       </c>
       <c r="C40" t="n">
-        <v>38.54026333165865</v>
+        <v>30.56439846491084</v>
       </c>
     </row>
     <row r="41">
@@ -879,10 +879,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>80.23241908834703</v>
+        <v>93.83070237118476</v>
       </c>
       <c r="C41" t="n">
-        <v>39.50082433239582</v>
+        <v>31.38826187116699</v>
       </c>
     </row>
     <row r="42">
@@ -890,10 +890,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>86.58157124853267</v>
+        <v>94.127209970392</v>
       </c>
       <c r="C42" t="n">
-        <v>40.46568336939659</v>
+        <v>32.56127090299168</v>
       </c>
     </row>
     <row r="43">
@@ -901,65 +901,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>91.15441131278843</v>
+        <v>94.34898901636633</v>
       </c>
       <c r="C43" t="n">
-        <v>41.22230729510391</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>91.36631176646544</v>
-      </c>
-      <c r="C44" t="n">
-        <v>42.33430675286663</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>96.60342466423307</v>
-      </c>
-      <c r="C45" t="n">
-        <v>43.05052339950255</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>96.7491917171704</v>
-      </c>
-      <c r="C46" t="n">
-        <v>44.03307733383595</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>97.4168582932206</v>
-      </c>
-      <c r="C47" t="n">
-        <v>45.01852229020721</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>99.81000421271865</v>
-      </c>
-      <c r="C48" t="n">
-        <v>45.88733792308418</v>
+        <v>33.33378394548637</v>
       </c>
     </row>
   </sheetData>
